--- a/Chart/YNetwork/Qutiont/initPert/Data10IQ.xlsx
+++ b/Chart/YNetwork/Qutiont/initPert/Data10IQ.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>eta1</t>
   </si>
@@ -22,6 +22,48 @@
   </si>
   <si>
     <t>eta3</t>
+  </si>
+  <si>
+    <t>eta4</t>
+  </si>
+  <si>
+    <t>eta5</t>
+  </si>
+  <si>
+    <t>eta6</t>
+  </si>
+  <si>
+    <t>eta7</t>
+  </si>
+  <si>
+    <t>eta8</t>
+  </si>
+  <si>
+    <t>eta9</t>
+  </si>
+  <si>
+    <t>eta10</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>InitCondition</t>
+  </si>
+  <si>
+    <t>InitPower</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>PowerPert</t>
   </si>
 </sst>
 </file>
@@ -42,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -58,11 +100,45 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -72,6 +148,40 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -81,72 +191,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:U11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="true"/>
-    <col min="2" max="2" width="16.28515625" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="8" customWidth="true"/>
+    <col min="4" max="4" width="16.28515625" customWidth="true"/>
+    <col min="6" max="6" width="2.140625" customWidth="true"/>
     <col min="8" max="8" width="2.140625" customWidth="true"/>
-    <col min="9" max="9" width="2.140625" customWidth="true"/>
-    <col min="10" max="10" width="2.85546875" customWidth="true"/>
+    <col min="10" max="10" width="12.42578125" customWidth="true"/>
+    <col min="12" max="12" width="5" customWidth="true"/>
+    <col min="13" max="13" width="2.140625" customWidth="true"/>
+    <col min="15" max="15" width="16.28515625" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="2.140625" customWidth="true"/>
+    <col min="21" max="21" width="12.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>-2.4945792215175989e-15</v>
-      </c>
-      <c r="F1">
-        <v>0.82144219412639186</v>
-      </c>
-      <c r="H1">
-        <v>3</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-      <c r="J1">
-        <v>-0.99999999999999989</v>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3.3166247903554003</v>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-2.4945792215175989e-15</v>
       </c>
       <c r="F2">
-        <v>0.41423852613362472</v>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>-9.9828668107928085</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>4.9999999999999938</v>
+      </c>
+      <c r="O2">
+        <v>-2.4945792215175989e-15</v>
+      </c>
+      <c r="Q2">
+        <v>0.90882092788048807</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>-9.9828668107928085</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3.3166247903554003</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>-10.982866810792803</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.9999999999999987</v>
+      </c>
+      <c r="O3">
+        <v>3.3166247903554003</v>
+      </c>
+      <c r="Q3">
+        <v>0.53367337484066002</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>-10.982866810792803</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="D4">
         <v>1.1537776118301384e-15</v>
       </c>
-      <c r="F3">
-        <v>0.69451485305930505</v>
-      </c>
-    </row>
-    <row r="4">
       <c r="F4">
-        <v>0.60315632043989653</v>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-0.99999999999999989</v>
+      </c>
+      <c r="J4">
+        <v>-11.982866810792807</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>-5.8011106960588564e-17</v>
+      </c>
+      <c r="O4">
+        <v>1.1537776118301384e-15</v>
+      </c>
+      <c r="Q4">
+        <v>0.32228249882265092</v>
+      </c>
+      <c r="S4">
+        <v>-0.99999999999999989</v>
+      </c>
+      <c r="U4">
+        <v>-11.982866810792807</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F5">
-        <v>0.56451851282229293</v>
+        <v>0</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>0.71672587702894697</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F6">
-        <v>0.4448446609399212</v>
+        <v>0</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>0.62727425784385971</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>0.29669131052860437</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Chart/YNetwork/Qutiont/initPert/Data10IQ.xlsx
+++ b/Chart/YNetwork/Qutiont/initPert/Data10IQ.xlsx
@@ -84,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -134,11 +134,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -182,6 +184,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,48 +199,48 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="true"/>
-    <col min="2" max="2" width="8" customWidth="true"/>
-    <col min="4" max="4" width="16.28515625" customWidth="true"/>
+    <col min="2" max="2" width="2.140625" customWidth="true"/>
+    <col min="4" max="4" width="10.7109375" customWidth="true"/>
     <col min="6" max="6" width="2.140625" customWidth="true"/>
     <col min="8" max="8" width="2.140625" customWidth="true"/>
-    <col min="10" max="10" width="12.42578125" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="12" max="12" width="5" customWidth="true"/>
     <col min="13" max="13" width="2.140625" customWidth="true"/>
-    <col min="15" max="15" width="16.28515625" customWidth="true"/>
+    <col min="15" max="15" width="10.7109375" customWidth="true"/>
     <col min="17" max="17" width="12.7109375" customWidth="true"/>
     <col min="19" max="19" width="2.140625" customWidth="true"/>
-    <col min="21" max="21" width="12.42578125" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="41" t="s">
         <v>14</v>
       </c>
     </row>
@@ -244,8 +248,11 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>4.9999999999999938</v>
+      </c>
       <c r="D2">
-        <v>-2.4945792215175989e-15</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -254,31 +261,34 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>-9.9828668107928085</v>
-      </c>
-      <c r="L2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="M2">
         <v>4.9999999999999938</v>
       </c>
       <c r="O2">
-        <v>-2.4945792215175989e-15</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.90882092788048807</v>
+        <v>0.56625312660898786</v>
       </c>
       <c r="S2">
         <v>3</v>
       </c>
       <c r="U2">
-        <v>-9.9828668107928085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.9999999999999987</v>
+      </c>
       <c r="D3">
         <v>3.3166247903554003</v>
       </c>
@@ -289,9 +299,9 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>-10.982866810792803</v>
-      </c>
-      <c r="L3" s="21" t="s">
+        <v>0.54628020453749659</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>1</v>
       </c>
       <c r="M3">
@@ -301,21 +311,24 @@
         <v>3.3166247903554003</v>
       </c>
       <c r="Q3">
-        <v>0.53367337484066002</v>
+        <v>0.7911093319918816</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>-10.982866810792803</v>
+        <v>0.54628020453749659</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>-5.8011106960588564e-17</v>
+      </c>
       <c r="D4">
-        <v>1.1537776118301384e-15</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -324,25 +337,25 @@
         <v>-0.99999999999999989</v>
       </c>
       <c r="J4">
-        <v>-11.982866810792807</v>
-      </c>
-      <c r="L4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="M4">
         <v>-5.8011106960588564e-17</v>
       </c>
       <c r="O4">
-        <v>1.1537776118301384e-15</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.32228249882265092</v>
+        <v>0.57889244685273045</v>
       </c>
       <c r="S4">
         <v>-0.99999999999999989</v>
       </c>
       <c r="U4">
-        <v>-11.982866810792807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -352,11 +365,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="Q5">
-        <v>0.71672587702894697</v>
+        <v>0.75211265370953329</v>
       </c>
     </row>
     <row r="6">
@@ -366,11 +379,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="23" t="s">
         <v>4</v>
       </c>
       <c r="Q6">
-        <v>0.62727425784385971</v>
+        <v>0.43983458390448721</v>
       </c>
     </row>
     <row r="7">
@@ -380,18 +393,18 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="23" t="s">
         <v>5</v>
       </c>
       <c r="Q7">
-        <v>0.29669131052860437</v>
+        <v>0.53038234239272675</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -399,7 +412,7 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -407,7 +420,7 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -415,7 +428,7 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="23" t="s">
         <v>9</v>
       </c>
     </row>
